--- a/diverse/tidsplan-V26.xlsx
+++ b/diverse/tidsplan-V26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99C78D0-19C7-4974-BEC6-E83694ABAC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FED11-442A-4B68-AC5D-11B6D09D0171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{904F4144-1937-4711-AEEF-991D1AD6F23A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Uke</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Avansert regresjon og maskinlæring</t>
   </si>
   <si>
-    <t>Dataøving 3 og obligatorisk innlevering</t>
-  </si>
-  <si>
     <t>Tidsrekker</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Avansert regresjon og maskinlæring og Dataøving 4</t>
   </si>
   <si>
-    <t>04.03.: (Ingen aktivitet)</t>
-  </si>
-  <si>
     <t>01.04.: (PÅSKE)</t>
   </si>
   <si>
@@ -125,30 +119,9 @@
     <t>02.03.: (Ingen aktivitet)</t>
   </si>
   <si>
-    <t>11.03.: **Regnegrupper**  i Aud A.</t>
-  </si>
-  <si>
-    <t>16.03.:  **Oversiktsforelesning: Tidsrekker** i Aud A</t>
-  </si>
-  <si>
-    <t>18.03.: **Oppgaveseminar 5** Aud A. Se \@ref(seminar) for oppgaver.</t>
-  </si>
-  <si>
-    <t>23.03.: (Ingen aktivitet)</t>
-  </si>
-  <si>
     <t>06.04.: (PÅSKE)</t>
   </si>
   <si>
-    <t>15.04.: **Oppgaveseminar  6**, Aud A. Se \@ref(seminar) for oppgaver.</t>
-  </si>
-  <si>
-    <t>20.04.: **Praktiske tips til eksamen**</t>
-  </si>
-  <si>
-    <t>27.04.: (Ingen aktivitet)</t>
-  </si>
-  <si>
     <t>11.02.: **Regnegrupper**  i Aud A.</t>
   </si>
   <si>
@@ -161,34 +134,55 @@
     <t>25.02.: **Oppgaveseminar 4** Aud A. Se \@ref(seminar) for oppgaver.</t>
   </si>
   <si>
-    <t>09.03.: (Ingen aktivitet)</t>
-  </si>
-  <si>
-    <t>25.03.: **Regnegrupper**  i Aud A.</t>
-  </si>
-  <si>
     <t>30.03.: (Ingen aktivitet)</t>
   </si>
   <si>
-    <t>22.04.: **Kontakttime** i Aud A</t>
-  </si>
-  <si>
-    <t>29.04.: **Kontakttime**  i Aud A.</t>
-  </si>
-  <si>
     <t>16.02.: **Oversiktsforelesning  Regresjon**, Aud A</t>
   </si>
   <si>
-    <t>08.04.: **Oversiktsforelesning: Maskinlæring** i Aud A.</t>
-  </si>
-  <si>
-    <t>13.04.:  **Oversiktsforelesning: Paneldata og kausalitet ** i Aud A</t>
-  </si>
-  <si>
     <t>Avansert regresjon og maskinlæring/Dataøving 5</t>
   </si>
   <si>
     <t xml:space="preserve">Forberedelse til eksamen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidsrekker og Dataøving 3 </t>
+  </si>
+  <si>
+    <t>04.03.: **Regnegrupper**  i Aud A.</t>
+  </si>
+  <si>
+    <t>11.03.: **Oppgaveseminar 5** Aud A. Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>09.03.:  **Oversiktsforelesning: Tidsrekker** i Aud A</t>
+  </si>
+  <si>
+    <t>18.03.:  **Oversiktsforelesning: Maskinlæring** i Aud A.</t>
+  </si>
+  <si>
+    <t>23.03.: **Oversiktsforelesning: Paneldata og kausalitet ** i Aud A</t>
+  </si>
+  <si>
+    <t>25.03.: **Oppgaveseminar  6**, Aud A. Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>20.04.: **Kontakttime**  i Aud A.</t>
+  </si>
+  <si>
+    <t>22.04.: (Ingen aktivitet)</t>
+  </si>
+  <si>
+    <t>08.04.: **Praktiske tips til eksamen**</t>
+  </si>
+  <si>
+    <t>13.04.:   **Kontakttime** i Aud A</t>
+  </si>
+  <si>
+    <t>15.04.: (Ingen aktivitet)</t>
+  </si>
+  <si>
+    <t>16.03.: (Ingen aktivitet)</t>
   </si>
 </sst>
 </file>
@@ -540,21 +534,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D0459C-A0F7-4603-AE4B-86A7155DF567}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="65.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -576,13 +570,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -590,13 +584,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -604,27 +598,27 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -632,27 +626,27 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -660,13 +654,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -674,136 +668,122 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/diverse/tidsplan-V26.xlsx
+++ b/diverse/tidsplan-V26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FED11-442A-4B68-AC5D-11B6D09D0171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64D3536-3FBE-49AC-A64A-600BF5EA7A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{904F4144-1937-4711-AEEF-991D1AD6F23A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Uke</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tidsrekker</t>
   </si>
   <si>
-    <t>Forberedelse til eksamen</t>
-  </si>
-  <si>
     <t>PÅSKE</t>
   </si>
   <si>
@@ -167,22 +164,16 @@
     <t>25.03.: **Oppgaveseminar  6**, Aud A. Se \@ref(seminar) for oppgaver.</t>
   </si>
   <si>
-    <t>20.04.: **Kontakttime**  i Aud A.</t>
-  </si>
-  <si>
-    <t>22.04.: (Ingen aktivitet)</t>
-  </si>
-  <si>
     <t>08.04.: **Praktiske tips til eksamen**</t>
   </si>
   <si>
     <t>13.04.:   **Kontakttime** i Aud A</t>
   </si>
   <si>
-    <t>15.04.: (Ingen aktivitet)</t>
-  </si>
-  <si>
     <t>16.03.: (Ingen aktivitet)</t>
+  </si>
+  <si>
+    <t>15.04.: **Kontakttime**  i Aud A.</t>
   </si>
 </sst>
 </file>
@@ -534,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D0459C-A0F7-4603-AE4B-86A7155DF567}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,10 +575,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,10 +617,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,13 +628,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,13 +670,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,13 +698,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,13 +726,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,13 +740,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,27 +754,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
